--- a/public/temp/result.xlsx
+++ b/public/temp/result.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,118 +412,3482 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2017-12-15 08:26:00</v>
+        <v>2018-01-01 09:30:56</v>
       </c>
       <c r="B2" t="str">
-        <v>XRPETH</v>
+        <v>LINKBTC</v>
       </c>
       <c r="C2" t="str">
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00120499</v>
+        <v>0.000051</v>
       </c>
       <c r="E2" t="str">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00963992</v>
+        <v>0.003825</v>
       </c>
       <c r="G2" t="str">
-        <v>0.008</v>
+        <v>0.00000383</v>
       </c>
       <c r="H2" t="str">
-        <v>XRP</v>
+        <v>BTC</v>
       </c>
       <c r="I2">
-        <v>-8.458234787844665</v>
+        <v>63.4138384277046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2017-12-15 08:35:07</v>
+        <v>2018-01-01 10:18:31</v>
       </c>
       <c r="B3" t="str">
-        <v>XVGETH</v>
+        <v>BRDBTC</v>
       </c>
       <c r="C3" t="str">
         <v>BUY</v>
       </c>
       <c r="D3" t="str">
-        <v>0.00002591</v>
+        <v>0.00012506</v>
       </c>
       <c r="E3" t="str">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F3" t="str">
-        <v>0.005182</v>
+        <v>0.0037518</v>
       </c>
       <c r="G3" t="str">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="H3" t="str">
-        <v>XVG</v>
+        <v>BRD</v>
       </c>
       <c r="I3">
-        <v>-4.55179987439937</v>
+        <v>-61.92008889927775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2017-12-15 14:12:29</v>
+        <v>2018-01-04 01:21:07</v>
       </c>
       <c r="B4" t="str">
-        <v>LTCETH</v>
+        <v>BRDBTC</v>
       </c>
       <c r="C4" t="str">
         <v>SELL</v>
       </c>
       <c r="D4" t="str">
-        <v>0.48</v>
+        <v>0.00015007</v>
       </c>
       <c r="E4" t="str">
-        <v>0.131</v>
+        <v>29</v>
       </c>
       <c r="F4" t="str">
-        <v>0.06288</v>
+        <v>0.00435203</v>
       </c>
       <c r="G4" t="str">
-        <v>0.00006288</v>
+        <v>0.00000435</v>
       </c>
       <c r="H4" t="str">
-        <v>ETH</v>
+        <v>BTC</v>
       </c>
       <c r="I4">
-        <v>55.08781887816</v>
+        <v>78.83635230086095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2017-12-15 15:15:44</v>
+        <v>2018-01-04 01:27:21</v>
       </c>
       <c r="B5" t="str">
-        <v>TNBETH</v>
+        <v>SNMBTC</v>
       </c>
       <c r="C5" t="str">
         <v>BUY</v>
       </c>
       <c r="D5" t="str">
-        <v>0.00010754</v>
+        <v>0.00002691</v>
       </c>
       <c r="E5" t="str">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="F5" t="str">
-        <v>0.02763778</v>
+        <v>0.00037674</v>
       </c>
       <c r="G5" t="str">
-        <v>0.257</v>
+        <v>0.014</v>
       </c>
       <c r="H5" t="str">
+        <v>SNM</v>
+      </c>
+      <c r="I5">
+        <v>-6.871254655083929</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2018-01-04 01:27:21</v>
+      </c>
+      <c r="B6" t="str">
+        <v>SNMBTC</v>
+      </c>
+      <c r="C6" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0.00002687</v>
+      </c>
+      <c r="E6" t="str">
+        <v>68</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0.00182716</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.068</v>
+      </c>
+      <c r="H6" t="str">
+        <v>SNM</v>
+      </c>
+      <c r="I6">
+        <v>-33.325056154332295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2018-01-04 01:34:00</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ETHBTC</v>
+      </c>
+      <c r="C7" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.062</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.035</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.00217</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.000035</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I7">
+        <v>-39.47256993990808</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2018-01-04 06:09:32</v>
+      </c>
+      <c r="B8" t="str">
+        <v>POEBTC</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.00000935</v>
+      </c>
+      <c r="E8" t="str">
+        <v>401</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0.00374935</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0.00000375</v>
+      </c>
+      <c r="H8" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I8">
+        <v>68.5048984731312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2018-01-04 06:49:15</v>
+      </c>
+      <c r="B9" t="str">
+        <v>KNCBTC</v>
+      </c>
+      <c r="C9" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0.00022479</v>
+      </c>
+      <c r="E9" t="str">
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.00179832</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.008</v>
+      </c>
+      <c r="H9" t="str">
+        <v>KNC</v>
+      </c>
+      <c r="I9">
+        <v>-32.891097085253634</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2018-01-04 20:00:40</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SNMBTC</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0.000032</v>
+      </c>
+      <c r="E10" t="str">
+        <v>252</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0.008064</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.00000806</v>
+      </c>
+      <c r="H10" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I10">
+        <v>151.13183026072377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2018-01-04 20:06:06</v>
+      </c>
+      <c r="B11" t="str">
+        <v>XRPBTC</v>
+      </c>
+      <c r="C11" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0.00018</v>
+      </c>
+      <c r="E11" t="str">
+        <v>19</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0.00342</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0.019</v>
+      </c>
+      <c r="H11" t="str">
+        <v>XRP</v>
+      </c>
+      <c r="I11">
+        <v>-64.19436734726678</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2018-01-05 02:49:13</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ARNBTC</v>
+      </c>
+      <c r="C12" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0.000299</v>
+      </c>
+      <c r="E12" t="str">
+        <v>11</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0.003289</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0.011</v>
+      </c>
+      <c r="H12" t="str">
+        <v>ARN</v>
+      </c>
+      <c r="I12">
+        <v>-65.766791376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2018-01-05 03:30:56</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ARNBTC</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0.00036</v>
+      </c>
+      <c r="E13" t="str">
+        <v>10</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0.0036</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0.0000036</v>
+      </c>
+      <c r="H13" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I13">
+        <v>71.715551625036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2018-01-05 03:58:26</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TRXBTC</v>
+      </c>
+      <c r="C14" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0.000017</v>
+      </c>
+      <c r="E14" t="str">
+        <v>203</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0.003451</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0.203</v>
+      </c>
+      <c r="H14" t="str">
+        <v>TRX</v>
+      </c>
+      <c r="I14">
+        <v>-69.006097655162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2018-01-05 08:58:06</v>
+      </c>
+      <c r="B15" t="str">
+        <v>LTCBTC</v>
+      </c>
+      <c r="C15" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0.0158</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0.22</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0.003476</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0.00022</v>
+      </c>
+      <c r="H15" t="str">
+        <v>LTC</v>
+      </c>
+      <c r="I15">
+        <v>-70.67456724668075</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2018-01-07 03:58:38</v>
+      </c>
+      <c r="B16" t="str">
+        <v>KNCBTC</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0.00027</v>
+      </c>
+      <c r="E16" t="str">
+        <v>7</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0.00189</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0.00000189</v>
+      </c>
+      <c r="H16" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I16">
+        <v>39.32775002675609</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2018-01-07 06:53:14</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TNBBTC</v>
+      </c>
+      <c r="C17" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0.00001321</v>
+      </c>
+      <c r="E17" t="str">
+        <v>143</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0.00188903</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0.143</v>
+      </c>
+      <c r="H17" t="str">
         <v>TNB</v>
       </c>
-      <c r="I5">
-        <v>-24.20088299778631</v>
+      <c r="I17">
+        <v>-39.14464621388607</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2018-01-07 21:13:49</v>
+      </c>
+      <c r="B18" t="str">
+        <v>TNBBTC</v>
+      </c>
+      <c r="C18" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0.000016</v>
+      </c>
+      <c r="E18" t="str">
+        <v>143</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0.002288</v>
+      </c>
+      <c r="G18" t="str">
+        <v>0.00000229</v>
+      </c>
+      <c r="H18" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I18">
+        <v>45.141942970126806</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2018-01-07 21:27:01</v>
+      </c>
+      <c r="B19" t="str">
+        <v>BTSBTC</v>
+      </c>
+      <c r="C19" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0.00005134</v>
+      </c>
+      <c r="E19" t="str">
+        <v>44</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0.00225896</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0.044</v>
+      </c>
+      <c r="H19" t="str">
+        <v>BTS</v>
+      </c>
+      <c r="I19">
+        <v>-44.72116517548461</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2018-01-09 05:12:06</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ETHBTC</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D20" t="str">
+        <v>0.0795</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0.035</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0.0027825</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0.00109311</v>
+      </c>
+      <c r="H20" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I20">
+        <v>50.53267724514187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2018-01-09 05:25:07</v>
+      </c>
+      <c r="B21" t="str">
+        <v>PPTBTC</v>
+      </c>
+      <c r="C21" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0.0039375</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0.71</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0.002795625</v>
+      </c>
+      <c r="G21" t="str">
+        <v>0.00109091</v>
+      </c>
+      <c r="H21" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I21">
+        <v>-50.26007487781546</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2018-01-10 02:46:52</v>
+      </c>
+      <c r="B22" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0.18434</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0.22</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0.0405548</v>
+      </c>
+      <c r="G22" t="str">
+        <v>0.00162969</v>
+      </c>
+      <c r="H22" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I22">
+        <v>64.6116075383636</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2018-01-10 04:46:55</v>
+      </c>
+      <c r="B23" t="str">
+        <v>PPTETH</v>
+      </c>
+      <c r="C23" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0.037028</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0.71</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0.02628988</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0.00112958</v>
+      </c>
+      <c r="H23" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I23">
+        <v>43.87714090979063</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2018-01-10 17:06:14</v>
+      </c>
+      <c r="B24" t="str">
+        <v>ETHBTC</v>
+      </c>
+      <c r="C24" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0.0918</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0.033</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0.0030294</v>
+      </c>
+      <c r="G24" t="str">
+        <v>0.00131167</v>
+      </c>
+      <c r="H24" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I24">
+        <v>55.05400074965224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2018-01-11 09:26:56</v>
+      </c>
+      <c r="B25" t="str">
+        <v>XVGBTC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0.0000113</v>
+      </c>
+      <c r="E25" t="str">
+        <v>269</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0.0030397</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0.001182</v>
+      </c>
+      <c r="H25" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I25">
+        <v>-52.11921567621885</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2018-01-13 04:44:46</v>
+      </c>
+      <c r="B26" t="str">
+        <v>WTCETH</v>
+      </c>
+      <c r="C26" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0.022992</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0.73</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0.01678416</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.00048536</v>
+      </c>
+      <c r="H26" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I26">
+        <v>-28.203373663798974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2018-01-13 04:52:17</v>
+      </c>
+      <c r="B27" t="str">
+        <v>WTCETH</v>
+      </c>
+      <c r="C27" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0.025002</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0.68</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0.01700136</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0.00050319</v>
+      </c>
+      <c r="H27" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I27">
+        <v>-28.512014742922137</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2018-01-13 06:12:02</v>
+      </c>
+      <c r="B28" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0.18181</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0.0654516</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.00200944</v>
+      </c>
+      <c r="H28" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I28">
+        <v>110.56822129420377</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2018-01-13 06:28:47</v>
+      </c>
+      <c r="B29" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C29" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.0132</v>
+      </c>
+      <c r="E29" t="str">
+        <v>4.96</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0.065472</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0.00197521</v>
+      </c>
+      <c r="H29" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I29">
+        <v>-109.25050842351361</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2018-01-13 09:17:46</v>
+      </c>
+      <c r="B30" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C30" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.00011907</v>
+      </c>
+      <c r="E30" t="str">
+        <v>90</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.0107163</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.00032815</v>
+      </c>
+      <c r="H30" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I30">
+        <v>18.338385385208067</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2018-01-13 09:17:46</v>
+      </c>
+      <c r="B31" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C31" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0.00011934</v>
+      </c>
+      <c r="E31" t="str">
+        <v>179</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0.02136186</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0.00065386</v>
+      </c>
+      <c r="H31" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I31">
+        <v>36.55571617301315</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2018-01-13 09:19:55</v>
+      </c>
+      <c r="B32" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C32" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0.013349</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2.34</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0.03123666</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0.0009511</v>
+      </c>
+      <c r="H32" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I32">
+        <v>-53.738505027554005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2018-01-13 09:19:55</v>
+      </c>
+      <c r="B33" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C33" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0.013337</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0.07</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0.00093359</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.00002845</v>
+      </c>
+      <c r="H33" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I33">
+        <v>-1.6061170083060783</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2018-01-13 09:27:31</v>
+      </c>
+      <c r="B34" t="str">
+        <v>BTSETH</v>
+      </c>
+      <c r="C34" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0.00046798</v>
+      </c>
+      <c r="E34" t="str">
+        <v>44</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0.02059112</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0.000625</v>
+      </c>
+      <c r="H34" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I34">
+        <v>35.53687378862478</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2018-01-13 09:27:44</v>
+      </c>
+      <c r="B35" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C35" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D35" t="str">
+        <v>0.013349</v>
+      </c>
+      <c r="E35" t="str">
+        <v>1.54</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0.02055746</v>
+      </c>
+      <c r="G35" t="str">
+        <v>0.00062586</v>
+      </c>
+      <c r="H35" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I35">
+        <v>-35.41476417357879</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2018-01-13 15:04:50</v>
+      </c>
+      <c r="B36" t="str">
+        <v>WTCETH</v>
+      </c>
+      <c r="C36" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D36" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1.41</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0.0423</v>
+      </c>
+      <c r="G36" t="str">
+        <v>0.00129312</v>
+      </c>
+      <c r="H36" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I36">
+        <v>72.8916396577785</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2018-01-14 00:46:03</v>
+      </c>
+      <c r="B37" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0.195</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0.217</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0.042315</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0.00132729</v>
+      </c>
+      <c r="H37" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I37">
+        <v>-71.031022706007</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2018-01-14 06:21:45</v>
+      </c>
+      <c r="B38" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D38" t="str">
+        <v>0.18043</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0.217</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0.03915331</v>
+      </c>
+      <c r="G38" t="str">
+        <v>0.00124929</v>
+      </c>
+      <c r="H38" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I38">
+        <v>64.91462035605466</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2018-01-14 08:19:57</v>
+      </c>
+      <c r="B39" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C39" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0.0048</v>
+      </c>
+      <c r="E39" t="str">
+        <v>4</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0.0192</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0.0006132</v>
+      </c>
+      <c r="H39" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I39">
+        <v>-30.5889446304</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2018-01-14 08:19:57</v>
+      </c>
+      <c r="B40" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C40" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0.0048</v>
+      </c>
+      <c r="E40" t="str">
+        <v>4</v>
+      </c>
+      <c r="F40" t="str">
+        <v>0.0192</v>
+      </c>
+      <c r="G40" t="str">
+        <v>0.0006132</v>
+      </c>
+      <c r="H40" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I40">
+        <v>-30.5889446304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2018-01-14 08:47:57</v>
+      </c>
+      <c r="B41" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C41" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0.00490925</v>
+      </c>
+      <c r="E41" t="str">
+        <v>8</v>
+      </c>
+      <c r="F41" t="str">
+        <v>0.039274</v>
+      </c>
+      <c r="G41" t="str">
+        <v>0.00124764</v>
+      </c>
+      <c r="H41" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I41">
+        <v>62.9029882491426</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2018-01-14 09:06:02</v>
+      </c>
+      <c r="B42" t="str">
+        <v>RCNETH</v>
+      </c>
+      <c r="C42" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.00031</v>
+      </c>
+      <c r="E42" t="str">
+        <v>129</v>
+      </c>
+      <c r="F42" t="str">
+        <v>0.03999</v>
+      </c>
+      <c r="G42" t="str">
+        <v>0.0012734</v>
+      </c>
+      <c r="H42" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I42">
+        <v>-64.95686345951596</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2018-01-15 01:07:10</v>
+      </c>
+      <c r="B43" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C43" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0.174</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0.008</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0.001392</v>
+      </c>
+      <c r="G43" t="str">
+        <v>0.00004505</v>
+      </c>
+      <c r="H43" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I43">
+        <v>2.26773545459328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2018-01-15 01:07:11</v>
+      </c>
+      <c r="B44" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C44" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0.174</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0.149</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0.025926</v>
+      </c>
+      <c r="G44" t="str">
+        <v>0.00084775</v>
+      </c>
+      <c r="H44" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I44">
+        <v>42.23657284179985</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2018-01-15 01:09:34</v>
+      </c>
+      <c r="B45" t="str">
+        <v>APPCETH</v>
+      </c>
+      <c r="C45" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0.00197</v>
+      </c>
+      <c r="E45" t="str">
+        <v>13</v>
+      </c>
+      <c r="F45" t="str">
+        <v>0.02561</v>
+      </c>
+      <c r="G45" t="str">
+        <v>0.00083273</v>
+      </c>
+      <c r="H45" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I45">
+        <v>-41.8285295976912</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2018-01-15 01:10:10</v>
+      </c>
+      <c r="B46" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C46" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0.174</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0.001</v>
+      </c>
+      <c r="F46" t="str">
+        <v>0.000174</v>
+      </c>
+      <c r="G46" t="str">
+        <v>0.00000524</v>
+      </c>
+      <c r="H46" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I46">
+        <v>0.28430850151872</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2018-01-15 02:44:20</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C47" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D47" t="str">
+        <v>0.007791</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F47" t="str">
+        <v>0.00194775</v>
+      </c>
+      <c r="G47" t="str">
+        <v>0.00005974</v>
+      </c>
+      <c r="H47" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I47">
+        <v>-3.1730708734061404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2018-01-15 07:05:10</v>
+      </c>
+      <c r="B48" t="str">
+        <v>APPCETH</v>
+      </c>
+      <c r="C48" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0.0019922</v>
+      </c>
+      <c r="E48" t="str">
+        <v>13</v>
+      </c>
+      <c r="F48" t="str">
+        <v>0.0258986</v>
+      </c>
+      <c r="G48" t="str">
+        <v>0.00076434</v>
+      </c>
+      <c r="H48" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I48">
+        <v>41.831207853598805</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2018-01-15 07:30:04</v>
+      </c>
+      <c r="B49" t="str">
+        <v>ADAETH</v>
+      </c>
+      <c r="C49" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D49" t="str">
+        <v>0.00065252</v>
+      </c>
+      <c r="E49" t="str">
+        <v>39</v>
+      </c>
+      <c r="F49" t="str">
+        <v>0.02544828</v>
+      </c>
+      <c r="G49" t="str">
+        <v>0.00073031</v>
+      </c>
+      <c r="H49" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I49">
+        <v>-41.64246231696271</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2018-01-17 05:42:37</v>
+      </c>
+      <c r="B50" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C50" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D50" t="str">
+        <v>0.18504</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0.422</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0.07808688</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.00297301</v>
+      </c>
+      <c r="H50" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I50">
+        <v>83.29935539619258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2018-01-17 05:44:33</v>
+      </c>
+      <c r="B51" t="str">
+        <v>ADAETH</v>
+      </c>
+      <c r="C51" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0.000575</v>
+      </c>
+      <c r="E51" t="str">
+        <v>56</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0.0322</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.00123303</v>
+      </c>
+      <c r="H51" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I51">
+        <v>-34.39327890474</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2018-01-17 05:46:02</v>
+      </c>
+      <c r="B52" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C52" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0.00472176</v>
+      </c>
+      <c r="E52" t="str">
+        <v>9</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0.04249584</v>
+      </c>
+      <c r="G52" t="str">
+        <v>0.00161978</v>
+      </c>
+      <c r="H52" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I52">
+        <v>-45.5793088588674</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2018-01-18 16:42:14</v>
+      </c>
+      <c r="B53" t="str">
+        <v>ADAETH</v>
+      </c>
+      <c r="C53" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.00064304</v>
+      </c>
+      <c r="E53" t="str">
+        <v>95</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.0610888</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.00216432</v>
+      </c>
+      <c r="H53" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I53">
+        <v>78.68181180086373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2018-01-18 16:42:46</v>
+      </c>
+      <c r="B54" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C54" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0.0006125</v>
+      </c>
+      <c r="E54" t="str">
+        <v>106</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0.064925</v>
+      </c>
+      <c r="G54" t="str">
+        <v>0.00232552</v>
+      </c>
+      <c r="H54" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I54">
+        <v>-83.61717350519137</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2018-01-18 22:32:26</v>
+      </c>
+      <c r="B55" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C55" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0.0053</v>
+      </c>
+      <c r="E55" t="str">
+        <v>9</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0.0477</v>
+      </c>
+      <c r="G55" t="str">
+        <v>0.00172195</v>
+      </c>
+      <c r="H55" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I55">
+        <v>61.440705225161985</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2018-01-19 02:50:50</v>
+      </c>
+      <c r="B56" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C56" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0.0005828</v>
+      </c>
+      <c r="E56" t="str">
+        <v>81</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0.0472068</v>
+      </c>
+      <c r="G56" t="str">
+        <v>0.00164024</v>
+      </c>
+      <c r="H56" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I56">
+        <v>-62.4976549142517</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2018-01-19 16:53:16</v>
+      </c>
+      <c r="B57" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C57" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0.007905</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0.00007905</v>
+      </c>
+      <c r="G57" t="str">
+        <v>0.00000281</v>
+      </c>
+      <c r="H57" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I57">
+        <v>0.10225684278263024</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2018-01-19 16:53:16</v>
+      </c>
+      <c r="B58" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C58" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D58" t="str">
+        <v>0.007905</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0.24</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0.0018972</v>
+      </c>
+      <c r="G58" t="str">
+        <v>0.00006688</v>
+      </c>
+      <c r="H58" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I58">
+        <v>2.454164226783126</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2018-01-19 16:53:41</v>
+      </c>
+      <c r="B59" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C59" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0.00057626</v>
+      </c>
+      <c r="E59" t="str">
+        <v>4</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0.00230504</v>
+      </c>
+      <c r="G59" t="str">
+        <v>0.00008075</v>
+      </c>
+      <c r="H59" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I59">
+        <v>-2.981705974765346</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2018-01-22 07:47:09</v>
+      </c>
+      <c r="B60" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C60" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D60" t="str">
+        <v>0.013539</v>
+      </c>
+      <c r="E60" t="str">
+        <v>5.73</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0.07757847</v>
+      </c>
+      <c r="G60" t="str">
+        <v>0.00294812</v>
+      </c>
+      <c r="H60" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I60">
+        <v>92.56516124349342</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2018-01-22 07:47:09</v>
+      </c>
+      <c r="B61" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C61" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0.01352</v>
+      </c>
+      <c r="E61" t="str">
+        <v>3.18</v>
+      </c>
+      <c r="F61" t="str">
+        <v>0.0429936</v>
+      </c>
+      <c r="G61" t="str">
+        <v>0.00163328</v>
+      </c>
+      <c r="H61" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I61">
+        <v>51.298081820613575</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2018-01-22 08:11:06</v>
+      </c>
+      <c r="B62" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C62" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0.0087</v>
+      </c>
+      <c r="E62" t="str">
+        <v>13</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0.1131</v>
+      </c>
+      <c r="G62" t="str">
+        <v>0.00429204</v>
+      </c>
+      <c r="H62" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I62">
+        <v>-133.25263385071952</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2018-01-23 04:57:00</v>
+      </c>
+      <c r="B63" t="str">
+        <v>TRXETH</v>
+      </c>
+      <c r="C63" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0.00007067</v>
+      </c>
+      <c r="E63" t="str">
+        <v>202</v>
+      </c>
+      <c r="F63" t="str">
+        <v>0.01427534</v>
+      </c>
+      <c r="G63" t="str">
+        <v>0.00055869</v>
+      </c>
+      <c r="H63" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I63">
+        <v>16.439574087460382</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2018-01-23 04:57:00</v>
+      </c>
+      <c r="B64" t="str">
+        <v>TRXETH</v>
+      </c>
+      <c r="C64" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D64" t="str">
+        <v>0.00007069</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <v>0.00007069</v>
+      </c>
+      <c r="G64" t="str">
+        <v>0.00000234</v>
+      </c>
+      <c r="H64" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I64">
+        <v>0.08140706226559749</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2018-01-23 05:38:33</v>
+      </c>
+      <c r="B65" t="str">
+        <v>VIBEETH</v>
+      </c>
+      <c r="C65" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0.0010414</v>
+      </c>
+      <c r="E65" t="str">
+        <v>21</v>
+      </c>
+      <c r="F65" t="str">
+        <v>0.0218694</v>
+      </c>
+      <c r="G65" t="str">
+        <v>0.00084746</v>
+      </c>
+      <c r="H65" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I65">
+        <v>-25.42205745474251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2018-01-24 08:18:12</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RCNETH</v>
+      </c>
+      <c r="C66" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0.00033</v>
+      </c>
+      <c r="E66" t="str">
+        <v>129</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0.04257</v>
+      </c>
+      <c r="G66" t="str">
+        <v>0.0015769</v>
+      </c>
+      <c r="H66" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I66">
+        <v>52.692129407115004</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2018-01-24 08:34:29</v>
+      </c>
+      <c r="B67" t="str">
+        <v>RCNETH</v>
+      </c>
+      <c r="C67" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0.00033</v>
+      </c>
+      <c r="E67" t="str">
+        <v>48</v>
+      </c>
+      <c r="F67" t="str">
+        <v>0.01584</v>
+      </c>
+      <c r="G67" t="str">
+        <v>0.00058836</v>
+      </c>
+      <c r="H67" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I67">
+        <v>-19.71324692964</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2018-01-24 08:34:29</v>
+      </c>
+      <c r="B68" t="str">
+        <v>RCNETH</v>
+      </c>
+      <c r="C68" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0.00032967</v>
+      </c>
+      <c r="E68" t="str">
+        <v>81</v>
+      </c>
+      <c r="F68" t="str">
+        <v>0.02670327</v>
+      </c>
+      <c r="G68" t="str">
+        <v>0.00099287</v>
+      </c>
+      <c r="H68" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I68">
+        <v>-33.23283808957374</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2018-01-24 08:41:39</v>
+      </c>
+      <c r="B69" t="str">
+        <v>RCNETH</v>
+      </c>
+      <c r="C69" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0.00032136</v>
+      </c>
+      <c r="E69" t="str">
+        <v>129</v>
+      </c>
+      <c r="F69" t="str">
+        <v>0.04145544</v>
+      </c>
+      <c r="G69" t="str">
+        <v>0.00154725</v>
+      </c>
+      <c r="H69" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I69">
+        <v>51.782961109589195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2018-01-24 08:45:00</v>
+      </c>
+      <c r="B70" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C70" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0.008059</v>
+      </c>
+      <c r="E70" t="str">
+        <v>5</v>
+      </c>
+      <c r="F70" t="str">
+        <v>0.040295</v>
+      </c>
+      <c r="G70" t="str">
+        <v>0.00150561</v>
+      </c>
+      <c r="H70" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I70">
+        <v>-50.32107049800501</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2018-01-27 18:19:06</v>
+      </c>
+      <c r="B71" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C71" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D71" t="str">
+        <v>0.007242</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0.18</v>
+      </c>
+      <c r="F71" t="str">
+        <v>0.00130356</v>
+      </c>
+      <c r="G71" t="str">
+        <v>0.0000537</v>
+      </c>
+      <c r="H71" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I71">
+        <v>-1.7498362519280266</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2018-01-27 18:37:11</v>
+      </c>
+      <c r="B72" t="str">
+        <v>ICXBTC</v>
+      </c>
+      <c r="C72" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0.000691</v>
+      </c>
+      <c r="E72" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="F72" t="str">
+        <v>0.00000691</v>
+      </c>
+      <c r="G72" t="str">
+        <v>0.00000296</v>
+      </c>
+      <c r="H72" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I72">
+        <v>-0.09565593105132035</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2018-01-28 09:24:55</v>
+      </c>
+      <c r="B73" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C73" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0.15903</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0.211</v>
+      </c>
+      <c r="F73" t="str">
+        <v>0.03355533</v>
+      </c>
+      <c r="G73" t="str">
+        <v>0.00144887</v>
+      </c>
+      <c r="H73" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I73">
+        <v>48.546428708242374</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2018-01-28 09:27:10</v>
+      </c>
+      <c r="B74" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C74" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0.00054249</v>
+      </c>
+      <c r="E74" t="str">
+        <v>61</v>
+      </c>
+      <c r="F74" t="str">
+        <v>0.03309189</v>
+      </c>
+      <c r="G74" t="str">
+        <v>0.00142671</v>
+      </c>
+      <c r="H74" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I74">
+        <v>-47.87878363278269</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2018-01-28 09:36:02</v>
+      </c>
+      <c r="B75" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C75" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0.000547</v>
+      </c>
+      <c r="E75" t="str">
+        <v>61</v>
+      </c>
+      <c r="F75" t="str">
+        <v>0.033367</v>
+      </c>
+      <c r="G75" t="str">
+        <v>0.001441</v>
+      </c>
+      <c r="H75" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I75">
+        <v>48.28868937217556</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2018-01-28 09:39:12</v>
+      </c>
+      <c r="B76" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C76" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0.000558</v>
+      </c>
+      <c r="E76" t="str">
+        <v>60</v>
+      </c>
+      <c r="F76" t="str">
+        <v>0.03348</v>
+      </c>
+      <c r="G76" t="str">
+        <v>0.00143711</v>
+      </c>
+      <c r="H76" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I76">
+        <v>-48.48136915338001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2018-01-28 09:40:26</v>
+      </c>
+      <c r="B77" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C77" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0.00056827</v>
+      </c>
+      <c r="E77" t="str">
+        <v>60</v>
+      </c>
+      <c r="F77" t="str">
+        <v>0.0340962</v>
+      </c>
+      <c r="G77" t="str">
+        <v>0.00146956</v>
+      </c>
+      <c r="H77" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I77">
+        <v>49.38830195372299</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2018-01-28 09:41:03</v>
+      </c>
+      <c r="B78" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C78" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0.00057283</v>
+      </c>
+      <c r="E78" t="str">
+        <v>60</v>
+      </c>
+      <c r="F78" t="str">
+        <v>0.0343698</v>
+      </c>
+      <c r="G78" t="str">
+        <v>0.00147362</v>
+      </c>
+      <c r="H78" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I78">
+        <v>-49.81158216909842</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2018-01-28 09:58:20</v>
+      </c>
+      <c r="B79" t="str">
+        <v>VIBETH</v>
+      </c>
+      <c r="C79" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0.00059503</v>
+      </c>
+      <c r="E79" t="str">
+        <v>60</v>
+      </c>
+      <c r="F79" t="str">
+        <v>0.0357018</v>
+      </c>
+      <c r="G79" t="str">
+        <v>0.00154576</v>
+      </c>
+      <c r="H79" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I79">
+        <v>51.873791526670495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2018-01-28 19:13:22</v>
+      </c>
+      <c r="B80" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C80" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0.007829</v>
+      </c>
+      <c r="E80" t="str">
+        <v>4.57</v>
+      </c>
+      <c r="F80" t="str">
+        <v>0.03577853</v>
+      </c>
+      <c r="G80" t="str">
+        <v>0.00161935</v>
+      </c>
+      <c r="H80" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I80">
+        <v>-51.28336730138745</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2018-01-30 05:26:51</v>
+      </c>
+      <c r="B81" t="str">
+        <v>XRPETH</v>
+      </c>
+      <c r="C81" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0.001063</v>
+      </c>
+      <c r="E81" t="str">
+        <v>19</v>
+      </c>
+      <c r="F81" t="str">
+        <v>0.020197</v>
+      </c>
+      <c r="G81" t="str">
+        <v>0.00092786</v>
+      </c>
+      <c r="H81" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I81">
+        <v>28.27898632608196</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2018-01-30 05:34:29</v>
+      </c>
+      <c r="B82" t="str">
+        <v>HSRETH</v>
+      </c>
+      <c r="C82" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0.014324</v>
+      </c>
+      <c r="E82" t="str">
+        <v>1.41</v>
+      </c>
+      <c r="F82" t="str">
+        <v>0.02019684</v>
+      </c>
+      <c r="G82" t="str">
+        <v>0.00092357</v>
+      </c>
+      <c r="H82" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I82">
+        <v>-27.845955684122966</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2018-01-31 04:52:10</v>
+      </c>
+      <c r="B83" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D83" t="str">
+        <v>0.0003442</v>
+      </c>
+      <c r="E83" t="str">
+        <v>191</v>
+      </c>
+      <c r="F83" t="str">
+        <v>0.0657422</v>
+      </c>
+      <c r="G83" t="str">
+        <v>0.00319373</v>
+      </c>
+      <c r="H83" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I83">
+        <v>89.5626429278023</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2018-01-31 04:52:28</v>
+      </c>
+      <c r="B84" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C84" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0.007758</v>
+      </c>
+      <c r="E84" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="F84" t="str">
+        <v>0.011637</v>
+      </c>
+      <c r="G84" t="str">
+        <v>0.00056545</v>
+      </c>
+      <c r="H84" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I84">
+        <v>-15.853446884205809</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2018-01-31 04:52:28</v>
+      </c>
+      <c r="B85" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C85" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0.007758</v>
+      </c>
+      <c r="E85" t="str">
+        <v>6.97</v>
+      </c>
+      <c r="F85" t="str">
+        <v>0.05407326</v>
+      </c>
+      <c r="G85" t="str">
+        <v>0.00262746</v>
+      </c>
+      <c r="H85" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I85">
+        <v>-73.66568318860966</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>2018-01-31 06:51:29</v>
+      </c>
+      <c r="B86" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C86" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D86" t="str">
+        <v>0.007773</v>
+      </c>
+      <c r="E86" t="str">
+        <v>11.12</v>
+      </c>
+      <c r="F86" t="str">
+        <v>0.08643576</v>
+      </c>
+      <c r="G86" t="str">
+        <v>0.00420548</v>
+      </c>
+      <c r="H86" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I86">
+        <v>114.37512199454747</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>2018-01-31 06:51:29</v>
+      </c>
+      <c r="B87" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C87" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D87" t="str">
+        <v>0.007773</v>
+      </c>
+      <c r="E87" t="str">
+        <v>2.11</v>
+      </c>
+      <c r="F87" t="str">
+        <v>0.01640103</v>
+      </c>
+      <c r="G87" t="str">
+        <v>0.00079789</v>
+      </c>
+      <c r="H87" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I87">
+        <v>21.696865295906065</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>2018-01-31 06:59:26</v>
+      </c>
+      <c r="B88" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C88" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0.007892</v>
+      </c>
+      <c r="E88" t="str">
+        <v>13.03</v>
+      </c>
+      <c r="F88" t="str">
+        <v>0.10283276</v>
+      </c>
+      <c r="G88" t="str">
+        <v>0.00499627</v>
+      </c>
+      <c r="H88" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I88">
+        <v>-136.51181348878157</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>2018-01-31 07:07:52</v>
+      </c>
+      <c r="B89" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C89" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0.00778</v>
+      </c>
+      <c r="E89" t="str">
+        <v>13.03</v>
+      </c>
+      <c r="F89" t="str">
+        <v>0.1013734</v>
+      </c>
+      <c r="G89" t="str">
+        <v>0.00494169</v>
+      </c>
+      <c r="H89" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I89">
+        <v>134.58439857737375</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>2018-01-31 07:28:35</v>
+      </c>
+      <c r="B90" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C90" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0.007891</v>
+      </c>
+      <c r="E90" t="str">
+        <v>12.85</v>
+      </c>
+      <c r="F90" t="str">
+        <v>0.10139935</v>
+      </c>
+      <c r="G90" t="str">
+        <v>0.00497223</v>
+      </c>
+      <c r="H90" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I90">
+        <v>-135.4745518179369</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2018-01-31 08:38:05</v>
+      </c>
+      <c r="B91" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C91" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0.007401</v>
+      </c>
+      <c r="E91" t="str">
+        <v>12.85</v>
+      </c>
+      <c r="F91" t="str">
+        <v>0.09510285</v>
+      </c>
+      <c r="G91" t="str">
+        <v>0.00462429</v>
+      </c>
+      <c r="H91" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I91">
+        <v>126.94713194620815</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>2018-01-31 09:06:00</v>
+      </c>
+      <c r="B92" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C92" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0.00596771</v>
+      </c>
+      <c r="E92" t="str">
+        <v>6</v>
+      </c>
+      <c r="F92" t="str">
+        <v>0.03580626</v>
+      </c>
+      <c r="G92" t="str">
+        <v>0.0017546</v>
+      </c>
+      <c r="H92" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I92">
+        <v>-48.057580407906556</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2018-01-31 09:06:00</v>
+      </c>
+      <c r="B93" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C93" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0.00599699</v>
+      </c>
+      <c r="E93" t="str">
+        <v>9</v>
+      </c>
+      <c r="F93" t="str">
+        <v>0.05397291</v>
+      </c>
+      <c r="G93" t="str">
+        <v>0.00263191</v>
+      </c>
+      <c r="H93" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I93">
+        <v>-72.44005551469782</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>2018-01-31 15:57:35</v>
+      </c>
+      <c r="B94" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C94" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0.000403</v>
+      </c>
+      <c r="E94" t="str">
+        <v>13</v>
+      </c>
+      <c r="F94" t="str">
+        <v>0.005239</v>
+      </c>
+      <c r="G94" t="str">
+        <v>0.00026611</v>
+      </c>
+      <c r="H94" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I94">
+        <v>-7.050812936414001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>2018-01-31 15:58:33</v>
+      </c>
+      <c r="B95" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C95" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0.0055561</v>
+      </c>
+      <c r="E95" t="str">
+        <v>16</v>
+      </c>
+      <c r="F95" t="str">
+        <v>0.0888976</v>
+      </c>
+      <c r="G95" t="str">
+        <v>0.00452201</v>
+      </c>
+      <c r="H95" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I95">
+        <v>119.96692138402399</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>2018-01-31 16:41:39</v>
+      </c>
+      <c r="B96" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C96" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0.00037891</v>
+      </c>
+      <c r="E96" t="str">
+        <v>234</v>
+      </c>
+      <c r="F96" t="str">
+        <v>0.08866494</v>
+      </c>
+      <c r="G96" t="str">
+        <v>0.00458011</v>
+      </c>
+      <c r="H96" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I96">
+        <v>-119.88250814075084</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>2018-02-01 03:00:39</v>
+      </c>
+      <c r="B97" t="str">
+        <v>VIBEETH</v>
+      </c>
+      <c r="C97" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0.000585</v>
+      </c>
+      <c r="E97" t="str">
+        <v>4</v>
+      </c>
+      <c r="F97" t="str">
+        <v>0.00234</v>
+      </c>
+      <c r="G97" t="str">
+        <v>0.00011812</v>
+      </c>
+      <c r="H97" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I97">
+        <v>3.09482315883</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2018-02-01 03:00:39</v>
+      </c>
+      <c r="B98" t="str">
+        <v>VIBEETH</v>
+      </c>
+      <c r="C98" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0.000583</v>
+      </c>
+      <c r="E98" t="str">
+        <v>17</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0.009911</v>
+      </c>
+      <c r="G98" t="str">
+        <v>0.00049976</v>
+      </c>
+      <c r="H98" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I98">
+        <v>13.108030909044501</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>2018-02-02 06:17:36</v>
+      </c>
+      <c r="B99" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C99" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0.00033699</v>
+      </c>
+      <c r="E99" t="str">
+        <v>37</v>
+      </c>
+      <c r="F99" t="str">
+        <v>0.01246863</v>
+      </c>
+      <c r="G99" t="str">
+        <v>0.00066808</v>
+      </c>
+      <c r="H99" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I99">
+        <v>-14.608772895036882</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>2018-02-16 01:30:24</v>
+      </c>
+      <c r="B100" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C100" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0.00640002</v>
+      </c>
+      <c r="E100" t="str">
+        <v>9</v>
+      </c>
+      <c r="F100" t="str">
+        <v>0.05760018</v>
+      </c>
+      <c r="G100" t="str">
+        <v>0.00074062</v>
+      </c>
+      <c r="H100" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I100">
+        <v>66.59933196463001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>2018-02-16 03:43:54</v>
+      </c>
+      <c r="B101" t="str">
+        <v>REQETH</v>
+      </c>
+      <c r="C101" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0.00036816</v>
+      </c>
+      <c r="E101" t="str">
+        <v>37</v>
+      </c>
+      <c r="F101" t="str">
+        <v>0.01362192</v>
+      </c>
+      <c r="G101" t="str">
+        <v>0.00017466</v>
+      </c>
+      <c r="H101" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I101">
+        <v>15.591990608000726</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>2018-02-16 04:07:36</v>
+      </c>
+      <c r="B102" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C102" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0.00619</v>
+      </c>
+      <c r="E102" t="str">
+        <v>2</v>
+      </c>
+      <c r="F102" t="str">
+        <v>0.01238</v>
+      </c>
+      <c r="G102" t="str">
+        <v>0.00016044</v>
+      </c>
+      <c r="H102" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I102">
+        <v>-14.2314617517852</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2018-02-16 04:07:36</v>
+      </c>
+      <c r="B103" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C103" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0.00619</v>
+      </c>
+      <c r="E103" t="str">
+        <v>1</v>
+      </c>
+      <c r="F103" t="str">
+        <v>0.00619</v>
+      </c>
+      <c r="G103" t="str">
+        <v>0.00008022</v>
+      </c>
+      <c r="H103" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I103">
+        <v>-7.1157308758926</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>2018-02-16 04:07:36</v>
+      </c>
+      <c r="B104" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C104" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0.00618999</v>
+      </c>
+      <c r="E104" t="str">
+        <v>6</v>
+      </c>
+      <c r="F104" t="str">
+        <v>0.03713994</v>
+      </c>
+      <c r="G104" t="str">
+        <v>0.00048134</v>
+      </c>
+      <c r="H104" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I104">
+        <v>-42.69431628219687</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>2018-02-16 16:29:09</v>
+      </c>
+      <c r="B105" t="str">
+        <v>EOSETH</v>
+      </c>
+      <c r="C105" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D105" t="str">
+        <v>0.010488</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1.49</v>
+      </c>
+      <c r="F105" t="str">
+        <v>0.01562712</v>
+      </c>
+      <c r="G105" t="str">
+        <v>0.00020117</v>
+      </c>
+      <c r="H105" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I105">
+        <v>-18.20104405763904</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>2018-02-17 05:35:28</v>
+      </c>
+      <c r="B106" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C106" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0.23902</v>
+      </c>
+      <c r="E106" t="str">
+        <v>0.08</v>
+      </c>
+      <c r="F106" t="str">
+        <v>0.0191216</v>
+      </c>
+      <c r="G106" t="str">
+        <v>0.0002355</v>
+      </c>
+      <c r="H106" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I106">
+        <v>23.12934181192606</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>2018-02-17 05:35:28</v>
+      </c>
+      <c r="B107" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C107" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0.23902</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0.084</v>
+      </c>
+      <c r="F107" t="str">
+        <v>0.02007768</v>
+      </c>
+      <c r="G107" t="str">
+        <v>0.00024698</v>
+      </c>
+      <c r="H107" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I107">
+        <v>24.285808902522366</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>2018-02-17 05:37:46</v>
+      </c>
+      <c r="B108" t="str">
+        <v>KNCETH</v>
+      </c>
+      <c r="C108" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D108" t="str">
+        <v>0.0029994</v>
+      </c>
+      <c r="E108" t="str">
+        <v>13</v>
+      </c>
+      <c r="F108" t="str">
+        <v>0.0389922</v>
+      </c>
+      <c r="G108" t="str">
+        <v>0.00048033</v>
+      </c>
+      <c r="H108" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I108">
+        <v>-47.165153520952266</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>2018-02-19 18:51:46</v>
+      </c>
+      <c r="B109" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C109" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0.00674699</v>
+      </c>
+      <c r="E109" t="str">
+        <v>7</v>
+      </c>
+      <c r="F109" t="str">
+        <v>0.04722893</v>
+      </c>
+      <c r="G109" t="str">
+        <v>0.00060357</v>
+      </c>
+      <c r="H109" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I109">
+        <v>55.736579159680836</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2018-02-19 18:51:46</v>
+      </c>
+      <c r="B110" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C110" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0.00674671</v>
+      </c>
+      <c r="E110" t="str">
+        <v>2</v>
+      </c>
+      <c r="F110" t="str">
+        <v>0.01349342</v>
+      </c>
+      <c r="G110" t="str">
+        <v>0.0001722</v>
+      </c>
+      <c r="H110" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I110">
+        <v>15.92407602638511</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>2018-02-20 08:47:55</v>
+      </c>
+      <c r="B111" t="str">
+        <v>AMBETH</v>
+      </c>
+      <c r="C111" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D111" t="str">
+        <v>0.00077754</v>
+      </c>
+      <c r="E111" t="str">
+        <v>78</v>
+      </c>
+      <c r="F111" t="str">
+        <v>0.06064812</v>
+      </c>
+      <c r="G111" t="str">
+        <v>0.0007953</v>
+      </c>
+      <c r="H111" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I111">
+        <v>-70.88593476118837</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>2018-02-20 14:35:35</v>
+      </c>
+      <c r="B112" t="str">
+        <v>AMBETH</v>
+      </c>
+      <c r="C112" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0.00083548</v>
+      </c>
+      <c r="E112" t="str">
+        <v>78</v>
+      </c>
+      <c r="F112" t="str">
+        <v>0.06516744</v>
+      </c>
+      <c r="G112" t="str">
+        <v>0.00085531</v>
+      </c>
+      <c r="H112" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I112">
+        <v>74.53525408979912</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>2018-02-20 18:24:33</v>
+      </c>
+      <c r="B113" t="str">
+        <v>AMBETH</v>
+      </c>
+      <c r="C113" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D113" t="str">
+        <v>0.00072971</v>
+      </c>
+      <c r="E113" t="str">
+        <v>74</v>
+      </c>
+      <c r="F113" t="str">
+        <v>0.05399854</v>
+      </c>
+      <c r="G113" t="str">
+        <v>0.00070422</v>
+      </c>
+      <c r="H113" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I113">
+        <v>-60.15790599977072</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>2018-02-20 18:24:33</v>
+      </c>
+      <c r="B114" t="str">
+        <v>AMBETH</v>
+      </c>
+      <c r="C114" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0.00072971</v>
+      </c>
+      <c r="E114" t="str">
+        <v>15</v>
+      </c>
+      <c r="F114" t="str">
+        <v>0.01094565</v>
+      </c>
+      <c r="G114" t="str">
+        <v>0.00014274</v>
+      </c>
+      <c r="H114" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I114">
+        <v>-12.194170135088658</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>2018-02-21 20:02:05</v>
+      </c>
+      <c r="B115" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C115" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D115" t="str">
+        <v>0.2537</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="F115" t="str">
+        <v>0.091332</v>
+      </c>
+      <c r="G115" t="str">
+        <v>0.00122475</v>
+      </c>
+      <c r="H115" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I115">
+        <v>98.34918068592053</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>2018-02-21 20:10:09</v>
+      </c>
+      <c r="B116" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C116" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0.00701156</v>
+      </c>
+      <c r="E116" t="str">
+        <v>7</v>
+      </c>
+      <c r="F116" t="str">
+        <v>0.04908092</v>
+      </c>
+      <c r="G116" t="str">
+        <v>0.00065622</v>
+      </c>
+      <c r="H116" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I116">
+        <v>-52.70770480602174</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>2018-02-21 22:31:41</v>
+      </c>
+      <c r="B117" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C117" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0.00696256</v>
+      </c>
+      <c r="E117" t="str">
+        <v>6</v>
+      </c>
+      <c r="F117" t="str">
+        <v>0.04177536</v>
+      </c>
+      <c r="G117" t="str">
+        <v>0.00056253</v>
+      </c>
+      <c r="H117" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I117">
+        <v>-45.821408361657774</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>2018-02-24 09:04:26</v>
+      </c>
+      <c r="B118" t="str">
+        <v>ICXETH</v>
+      </c>
+      <c r="C118" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0.004609</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0.21</v>
+      </c>
+      <c r="F118" t="str">
+        <v>0.00096789</v>
+      </c>
+      <c r="G118" t="str">
+        <v>0.00004375</v>
+      </c>
+      <c r="H118" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I118">
+        <v>-1.0223442192774774</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>2018-02-26 09:17:36</v>
+      </c>
+      <c r="B119" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C119" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0.00629003</v>
+      </c>
+      <c r="E119" t="str">
+        <v>21</v>
+      </c>
+      <c r="F119" t="str">
+        <v>0.13209063</v>
+      </c>
+      <c r="G119" t="str">
+        <v>0.00605837</v>
+      </c>
+      <c r="H119" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I119">
+        <v>143.66994537608474</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>2018-02-26 10:31:28</v>
+      </c>
+      <c r="B120" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C120" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0.00670326</v>
+      </c>
+      <c r="E120" t="str">
+        <v>11</v>
+      </c>
+      <c r="F120" t="str">
+        <v>0.07373586</v>
+      </c>
+      <c r="G120" t="str">
+        <v>0.00335359</v>
+      </c>
+      <c r="H120" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I120">
+        <v>-80.08622517118627</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2018-02-26 10:31:28</v>
+      </c>
+      <c r="B121" t="str">
+        <v>VENETH</v>
+      </c>
+      <c r="C121" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0.00670325</v>
+      </c>
+      <c r="E121" t="str">
+        <v>8</v>
+      </c>
+      <c r="F121" t="str">
+        <v>0.053626</v>
+      </c>
+      <c r="G121" t="str">
+        <v>0.00243897</v>
+      </c>
+      <c r="H121" t="str">
+        <v>BNB</v>
+      </c>
+      <c r="I121">
+        <v>-58.24444050737368</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/result.xlsx
+++ b/public/temp/result.xlsx
@@ -5,13 +5,17 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet1!$A$1:$H$53</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -376,7 +380,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,132 +420,1524 @@
         <v>CapGain</v>
       </c>
       <c r="L1" t="str">
-        <v>CADTotal</v>
+        <v>CapNet</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2017-12-15 08:26:00</v>
+        <v>2017/12/13 03:27:57</v>
       </c>
       <c r="B2" t="str">
-        <v>XRPETH</v>
+        <v>ETHBTC</v>
       </c>
       <c r="C2" t="str">
         <v>BUY</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00120499</v>
+        <v>0.03691989</v>
       </c>
       <c r="E2" t="str">
-        <v>8</v>
+        <v>0.0330533</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00963992</v>
+        <v>0.0329872</v>
       </c>
       <c r="G2" t="str">
-        <v>0.008</v>
+        <v>0.0000661</v>
       </c>
       <c r="H2" t="str">
-        <v>XRP</v>
+        <v>ETH</v>
       </c>
       <c r="I2">
-        <v>-8.458234787844665</v>
+        <v>-27.01690951344776</v>
       </c>
       <c r="J2">
-        <v>-37.21091766003035</v>
+        <v>-1478.0236726294613</v>
       </c>
       <c r="K2">
-        <v>55.08781887816</v>
+        <v>1640.0794704309817</v>
       </c>
       <c r="L2">
-        <v>17.876901218129653</v>
+        <v>162.05579780152038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2017-12-15 08:35:07</v>
+        <v>2017/12/13 14:52:37</v>
       </c>
       <c r="B3" t="str">
-        <v>XVGETH</v>
+        <v>ETHBTC</v>
       </c>
       <c r="C3" t="str">
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="D3" t="str">
-        <v>0.00002591</v>
+        <v>0.043</v>
       </c>
       <c r="E3" t="str">
-        <v>200</v>
+        <v>0.0329872</v>
       </c>
       <c r="F3" t="str">
-        <v>0.005182</v>
+        <v>0.00141562</v>
       </c>
       <c r="G3" t="str">
-        <v>0.2</v>
+        <v>0.00000283</v>
       </c>
       <c r="H3" t="str">
-        <v>XVG</v>
+        <v>BTC</v>
       </c>
       <c r="I3">
-        <v>-4.55179987439937</v>
+        <v>30.629512681283995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2017-12-15 14:12:29</v>
+        <v>2017/12/15 02:26:14</v>
       </c>
       <c r="B4" t="str">
-        <v>LTCETH</v>
+        <v>ETHBTC</v>
       </c>
       <c r="C4" t="str">
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="D4" t="str">
-        <v>0.48</v>
+        <v>0.037</v>
       </c>
       <c r="E4" t="str">
-        <v>0.131</v>
+        <v>0.04101162</v>
       </c>
       <c r="F4" t="str">
-        <v>0.06288</v>
+        <v>0.0409296</v>
       </c>
       <c r="G4" t="str">
-        <v>0.00006288</v>
+        <v>0.00008202</v>
       </c>
       <c r="H4" t="str">
         <v>ETH</v>
       </c>
       <c r="I4">
-        <v>55.08781887816</v>
+        <v>-34.390302161112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2017-12-15 15:15:44</v>
+        <v>2017/12/15 08:26:00</v>
       </c>
       <c r="B5" t="str">
+        <v>XRPETH</v>
+      </c>
+      <c r="C5" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0.00120499</v>
+      </c>
+      <c r="E5" t="str">
+        <v>8</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.00963992</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.008</v>
+      </c>
+      <c r="H5" t="str">
+        <v>XRP</v>
+      </c>
+      <c r="I5">
+        <v>-8.458234787844665</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2017/12/15 08:35:07</v>
+      </c>
+      <c r="B6" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C6" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0.00002591</v>
+      </c>
+      <c r="E6" t="str">
+        <v>200</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0.005182</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="str">
+        <v>XVG</v>
+      </c>
+      <c r="I6">
+        <v>-4.55179987439937</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2017/12/15 14:12:29</v>
+      </c>
+      <c r="B7" t="str">
+        <v>LTCETH</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.48</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.131</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.06288</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.00006288</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I7">
+        <v>55.08781887816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2017/12/15 15:15:44</v>
+      </c>
+      <c r="B8" t="str">
         <v>TNBETH</v>
       </c>
-      <c r="C5" t="str">
-        <v>BUY</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C8" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D8" t="str">
         <v>0.00010754</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E8" t="str">
         <v>257</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F8" t="str">
         <v>0.02763778</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G8" t="str">
         <v>0.257</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H8" t="str">
         <v>TNB</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>-24.20088299778631</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2017/12/15 15:16:37</v>
+      </c>
+      <c r="B9" t="str">
+        <v>TNBETH</v>
+      </c>
+      <c r="C9" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0.00010754</v>
+      </c>
+      <c r="E9" t="str">
+        <v>109</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.01172186</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.109</v>
+      </c>
+      <c r="H9" t="str">
+        <v>TNB</v>
+      </c>
+      <c r="I9">
+        <v>-10.283620119315053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2017/12/15 16:54:57</v>
+      </c>
+      <c r="B10" t="str">
+        <v>MCOETH</v>
+      </c>
+      <c r="C10" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0.022264</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1.66</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0.03695824</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.00166</v>
+      </c>
+      <c r="H10" t="str">
+        <v>MCO</v>
+      </c>
+      <c r="I10">
+        <v>-32.730382327246474</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2017/12/16 06:01:54</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BTSETH</v>
+      </c>
+      <c r="C11" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0.000565</v>
+      </c>
+      <c r="E11" t="str">
+        <v>22</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0.01243</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0.022</v>
+      </c>
+      <c r="H11" t="str">
+        <v>BTS</v>
+      </c>
+      <c r="I11">
+        <v>-11.1011090230557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2017/12/16 17:27:33</v>
+      </c>
+      <c r="B12" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0.000051</v>
+      </c>
+      <c r="E12" t="str">
+        <v>199</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0.010149</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0.00001015</v>
+      </c>
+      <c r="H12" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I12">
+        <v>9.19300393277775</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2017/12/16 20:54:15</v>
+      </c>
+      <c r="B13" t="str">
+        <v>TRXETH</v>
+      </c>
+      <c r="C13" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0.000047</v>
+      </c>
+      <c r="E13" t="str">
+        <v>219</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0.010293</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0.219</v>
+      </c>
+      <c r="H13" t="str">
+        <v>TRX</v>
+      </c>
+      <c r="I13">
+        <v>-9.519541195858874</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2017/12/17 14:40:36</v>
+      </c>
+      <c r="B14" t="str">
+        <v>TNBETH</v>
+      </c>
+      <c r="C14" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0.000135</v>
+      </c>
+      <c r="E14" t="str">
+        <v>365</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0.049275</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0.00004928</v>
+      </c>
+      <c r="H14" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I14">
+        <v>46.574511327096005</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2017/12/17 18:30:46</v>
+      </c>
+      <c r="B15" t="str">
+        <v>TNBETH</v>
+      </c>
+      <c r="C15" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0.00013752</v>
+      </c>
+      <c r="E15" t="str">
+        <v>347</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0.04771944</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0.347</v>
+      </c>
+      <c r="H15" t="str">
+        <v>TNB</v>
+      </c>
+      <c r="I15">
+        <v>-43.03885833278854</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2017/12/17 22:08:02</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TNBETH</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0.00014478</v>
+      </c>
+      <c r="E16" t="str">
+        <v>347</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0.05023866</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0.00005024</v>
+      </c>
+      <c r="H16" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I16">
+        <v>45.817736601032095</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2017/12/17 22:23:43</v>
+      </c>
+      <c r="B17" t="str">
+        <v>ETHBTC</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0.037741</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0.051</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0.001924791</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0.00000192</v>
+      </c>
+      <c r="H17" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I17">
+        <v>46.948201719342066</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2017/12/17 22:39:19</v>
+      </c>
+      <c r="B18" t="str">
+        <v>REQBTC</v>
+      </c>
+      <c r="C18" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0.0000148</v>
+      </c>
+      <c r="E18" t="str">
+        <v>129</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0.0019092</v>
+      </c>
+      <c r="G18" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="H18" t="str">
+        <v>REQ</v>
+      </c>
+      <c r="I18">
+        <v>-46.68081731662452</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2017/12/18 07:53:39</v>
+      </c>
+      <c r="B19" t="str">
+        <v>TRXETH</v>
+      </c>
+      <c r="C19" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0.00006525</v>
+      </c>
+      <c r="E19" t="str">
+        <v>93</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0.00606825</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0.00000607</v>
+      </c>
+      <c r="H19" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I19">
+        <v>5.7249546877486</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2017/12/18 07:53:55</v>
+      </c>
+      <c r="B20" t="str">
+        <v>TRXETH</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D20" t="str">
+        <v>0.00006525</v>
+      </c>
+      <c r="E20" t="str">
+        <v>125</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0.00815625</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0.00000816</v>
+      </c>
+      <c r="H20" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I20">
+        <v>7.69472535095364</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2017/12/18 14:04:55</v>
+      </c>
+      <c r="B21" t="str">
+        <v>REQBTC</v>
+      </c>
+      <c r="C21" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0.000018</v>
+      </c>
+      <c r="E21" t="str">
+        <v>128</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0.002304</v>
+      </c>
+      <c r="G21" t="str">
+        <v>0.0000023</v>
+      </c>
+      <c r="H21" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I21">
+        <v>55.763051766472614</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2017/12/18 16:09:30</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CNDBTC</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0.00000207</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1118</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0.00231426</v>
+      </c>
+      <c r="G22" t="str">
+        <v>1.118</v>
+      </c>
+      <c r="H22" t="str">
+        <v>CND</v>
+      </c>
+      <c r="I22">
+        <v>-56.84026090158513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2017/12/18 20:03:45</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CNDBTC</v>
+      </c>
+      <c r="C23" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0.0000025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1116</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0.00279</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0.00000279</v>
+      </c>
+      <c r="H23" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I23">
+        <v>68.24862989162153</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2017/12/18 21:04:37</v>
+      </c>
+      <c r="B24" t="str">
+        <v>QTUMBTC</v>
+      </c>
+      <c r="C24" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0.0027</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1.03</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0.002781</v>
+      </c>
+      <c r="G24" t="str">
+        <v>0.00103</v>
+      </c>
+      <c r="H24" t="str">
+        <v>QTUM</v>
+      </c>
+      <c r="I24">
+        <v>-67.90722359813708</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2017/12/18 23:59:20</v>
+      </c>
+      <c r="B25" t="str">
+        <v>MCOETH</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0.022155</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1.65</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0.03655575</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0.00003656</v>
+      </c>
+      <c r="H25" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I25">
+        <v>39.63065990034565</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2017/12/18 23:59:45</v>
+      </c>
+      <c r="B26" t="str">
+        <v>XRPETH</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0.00096399</v>
+      </c>
+      <c r="E26" t="str">
+        <v>7</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0.00674793</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.00000675</v>
+      </c>
+      <c r="H26" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I26">
+        <v>7.316055696276001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2017/12/19 00:01:40</v>
+      </c>
+      <c r="B27" t="str">
+        <v>BTSETH</v>
+      </c>
+      <c r="C27" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0.00054562</v>
+      </c>
+      <c r="E27" t="str">
+        <v>21</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0.01145802</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0.00001146</v>
+      </c>
+      <c r="H27" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I27">
+        <v>12.41097546724128</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2017/12/19 02:40:02</v>
+      </c>
+      <c r="B28" t="str">
+        <v>QTUMETH</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0.079033</v>
+      </c>
+      <c r="E28" t="str">
+        <v>1.02</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0.08061366</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.00008061</v>
+      </c>
+      <c r="H28" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I28">
+        <v>84.62099539902451</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2017/12/19 04:01:38</v>
+      </c>
+      <c r="B29" t="str">
+        <v>BQXETH</v>
+      </c>
+      <c r="C29" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.0027047</v>
+      </c>
+      <c r="E29" t="str">
+        <v>55</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0.1487585</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0.055</v>
+      </c>
+      <c r="H29" t="str">
+        <v>BQX</v>
+      </c>
+      <c r="I29">
+        <v>-158.07239813231192</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2017/12/20 08:59:27</v>
+      </c>
+      <c r="B30" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C30" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.00010536</v>
+      </c>
+      <c r="E30" t="str">
+        <v>13</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.00136968</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.013</v>
+      </c>
+      <c r="H30" t="str">
+        <v>XVG</v>
+      </c>
+      <c r="I30">
+        <v>-1.3817961128518559</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2017/12/20 09:29:43</v>
+      </c>
+      <c r="B31" t="str">
+        <v>BQXETH</v>
+      </c>
+      <c r="C31" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0.0023675</v>
+      </c>
+      <c r="E31" t="str">
+        <v>54</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0.127845</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0.00012785</v>
+      </c>
+      <c r="H31" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I31">
+        <v>132.08755424270996</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2017/12/20 09:29:54</v>
+      </c>
+      <c r="B32" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C32" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0.00011697</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1092</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0.12773124</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1.092</v>
+      </c>
+      <c r="H32" t="str">
+        <v>XVG</v>
+      </c>
+      <c r="I32">
+        <v>-131.99625954906298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2017/12/20 15:50:03</v>
+      </c>
+      <c r="B33" t="str">
+        <v>XVGETH</v>
+      </c>
+      <c r="C33" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0.00015603</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1104</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0.17225712</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.00017226</v>
+      </c>
+      <c r="H33" t="str">
+        <v>ETH</v>
+      </c>
+      <c r="I33">
+        <v>176.81036188105801</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2017/12/20 16:04:43</v>
+      </c>
+      <c r="B34" t="str">
+        <v>ETHBTC</v>
+      </c>
+      <c r="C34" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0.047897</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0.172</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0.008238284</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0.00000824</v>
+      </c>
+      <c r="H34" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I34">
+        <v>174.9624115734984</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2017/12/20 16:05:44</v>
+      </c>
+      <c r="B35" t="str">
+        <v>BCCBTC</v>
+      </c>
+      <c r="C35" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D35" t="str">
+        <v>0.231888</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0.035</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0.00811608</v>
+      </c>
+      <c r="G35" t="str">
+        <v>0.000035</v>
+      </c>
+      <c r="H35" t="str">
+        <v>BCC</v>
+      </c>
+      <c r="I35">
+        <v>-172.22156283557965</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2017/12/21 04:43:46</v>
+      </c>
+      <c r="B36" t="str">
+        <v>BCCBTC</v>
+      </c>
+      <c r="C36" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D36" t="str">
+        <v>0.200972</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0.034</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0.006833048</v>
+      </c>
+      <c r="G36" t="str">
+        <v>0.00000683</v>
+      </c>
+      <c r="H36" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I36">
+        <v>147.1217974955467</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2017/12/21 04:46:32</v>
+      </c>
+      <c r="B37" t="str">
+        <v>TRXBTC</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0.00000378</v>
+      </c>
+      <c r="E37" t="str">
+        <v>918</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0.00347004</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0.918</v>
+      </c>
+      <c r="H37" t="str">
+        <v>TRX</v>
+      </c>
+      <c r="I37">
+        <v>-74.80650206889388</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2017/12/21 04:47:27</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ICXBTC</v>
+      </c>
+      <c r="C38" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D38" t="str">
+        <v>0.000157</v>
+      </c>
+      <c r="E38" t="str">
+        <v>22.14</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0.00347598</v>
+      </c>
+      <c r="G38" t="str">
+        <v>0.02214</v>
+      </c>
+      <c r="H38" t="str">
+        <v>ICX</v>
+      </c>
+      <c r="I38">
+        <v>-74.93451106520916</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2017/12/21 05:38:32</v>
+      </c>
+      <c r="B39" t="str">
+        <v>TRXBTC</v>
+      </c>
+      <c r="C39" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0.0000038</v>
+      </c>
+      <c r="E39" t="str">
+        <v>917</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0.0034846</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0.00000348</v>
+      </c>
+      <c r="H39" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I39">
+        <v>73.807206128832</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2017/12/21 05:52:12</v>
+      </c>
+      <c r="B40" t="str">
+        <v>XVGBTC</v>
+      </c>
+      <c r="C40" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0.00000915</v>
+      </c>
+      <c r="E40" t="str">
+        <v>380</v>
+      </c>
+      <c r="F40" t="str">
+        <v>0.003477</v>
+      </c>
+      <c r="G40" t="str">
+        <v>0.38</v>
+      </c>
+      <c r="H40" t="str">
+        <v>XVG</v>
+      </c>
+      <c r="I40">
+        <v>-72.76299359741716</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2017/12/21 22:55:40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ICXBTC</v>
+      </c>
+      <c r="C41" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0.00019</v>
+      </c>
+      <c r="E41" t="str">
+        <v>22.11</v>
+      </c>
+      <c r="F41" t="str">
+        <v>0.0042009</v>
+      </c>
+      <c r="G41" t="str">
+        <v>0.0000042</v>
+      </c>
+      <c r="H41" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I41">
+        <v>74.93175082166398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2017/12/22 07:28:48</v>
+      </c>
+      <c r="B42" t="str">
+        <v>XRPBTC</v>
+      </c>
+      <c r="C42" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.0000744</v>
+      </c>
+      <c r="E42" t="str">
+        <v>56</v>
+      </c>
+      <c r="F42" t="str">
+        <v>0.0041664</v>
+      </c>
+      <c r="G42" t="str">
+        <v>0.056</v>
+      </c>
+      <c r="H42" t="str">
+        <v>XRP</v>
+      </c>
+      <c r="I42">
+        <v>-69.25286341056385</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2017/12/23 09:30:20</v>
+      </c>
+      <c r="B43" t="str">
+        <v>XVGBTC</v>
+      </c>
+      <c r="C43" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0.000013</v>
+      </c>
+      <c r="E43" t="str">
+        <v>380</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0.00494</v>
+      </c>
+      <c r="G43" t="str">
+        <v>0.00000494</v>
+      </c>
+      <c r="H43" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I43">
+        <v>97.16954143893281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2017/12/23 13:32:23</v>
+      </c>
+      <c r="B44" t="str">
+        <v>SNMBTC</v>
+      </c>
+      <c r="C44" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0.000029</v>
+      </c>
+      <c r="E44" t="str">
+        <v>171</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0.004959</v>
+      </c>
+      <c r="G44" t="str">
+        <v>0.171</v>
+      </c>
+      <c r="H44" t="str">
+        <v>SNM</v>
+      </c>
+      <c r="I44">
+        <v>-99.74605063682066</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2017/12/28 15:55:05</v>
+      </c>
+      <c r="B45" t="str">
+        <v>XRPBTC</v>
+      </c>
+      <c r="C45" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0.00009</v>
+      </c>
+      <c r="E45" t="str">
+        <v>56</v>
+      </c>
+      <c r="F45" t="str">
+        <v>0.00504</v>
+      </c>
+      <c r="G45" t="str">
+        <v>0.00000504</v>
+      </c>
+      <c r="H45" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I45">
+        <v>91.73779582574879</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2017/12/28 17:22:28</v>
+      </c>
+      <c r="B46" t="str">
+        <v>VIBBTC</v>
+      </c>
+      <c r="C46" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0.000029</v>
+      </c>
+      <c r="E46" t="str">
+        <v>90</v>
+      </c>
+      <c r="F46" t="str">
+        <v>0.00261</v>
+      </c>
+      <c r="G46" t="str">
+        <v>0.09</v>
+      </c>
+      <c r="H46" t="str">
+        <v>VIB</v>
+      </c>
+      <c r="I46">
+        <v>-47.07970915401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2017/12/28 17:23:24</v>
+      </c>
+      <c r="B47" t="str">
+        <v>NULSBTC</v>
+      </c>
+      <c r="C47" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D47" t="str">
+        <v>0.00014718</v>
+      </c>
+      <c r="E47" t="str">
+        <v>16</v>
+      </c>
+      <c r="F47" t="str">
+        <v>0.00235488</v>
+      </c>
+      <c r="G47" t="str">
+        <v>0.016</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NULS</v>
+      </c>
+      <c r="I47">
+        <v>-42.508654826159805</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2017/12/28 20:01:09</v>
+      </c>
+      <c r="B48" t="str">
+        <v>NULSBTC</v>
+      </c>
+      <c r="C48" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0.000176</v>
+      </c>
+      <c r="E48" t="str">
+        <v>15</v>
+      </c>
+      <c r="F48" t="str">
+        <v>0.00264</v>
+      </c>
+      <c r="G48" t="str">
+        <v>0.00000264</v>
+      </c>
+      <c r="H48" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I48">
+        <v>49.4533219752</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2017/12/29 03:55:40</v>
+      </c>
+      <c r="B49" t="str">
+        <v>FUELBTC</v>
+      </c>
+      <c r="C49" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D49" t="str">
+        <v>0.00001068</v>
+      </c>
+      <c r="E49" t="str">
+        <v>254</v>
+      </c>
+      <c r="F49" t="str">
+        <v>0.00271272</v>
+      </c>
+      <c r="G49" t="str">
+        <v>0.254</v>
+      </c>
+      <c r="H49" t="str">
+        <v>FUEL</v>
+      </c>
+      <c r="I49">
+        <v>-48.785204824029904</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2017/12/31 02:42:10</v>
+      </c>
+      <c r="B50" t="str">
+        <v>FUELBTC</v>
+      </c>
+      <c r="C50" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D50" t="str">
+        <v>0.00001282</v>
+      </c>
+      <c r="E50" t="str">
+        <v>253</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0.00324346</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.00000324</v>
+      </c>
+      <c r="H50" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I50">
+        <v>52.481404743820804</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2017/12/31 05:24:45</v>
+      </c>
+      <c r="B51" t="str">
+        <v>LINKBTC</v>
+      </c>
+      <c r="C51" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0.00004245</v>
+      </c>
+      <c r="E51" t="str">
+        <v>76</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0.0032262</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.076</v>
+      </c>
+      <c r="H51" t="str">
+        <v>LINK</v>
+      </c>
+      <c r="I51">
+        <v>-52.9106452922029</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2017/12/31 08:21:29</v>
+      </c>
+      <c r="B52" t="str">
+        <v>VIBBTC</v>
+      </c>
+      <c r="C52" t="str">
+        <v>SELL</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0.000035</v>
+      </c>
+      <c r="E52" t="str">
+        <v>89</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0.003115</v>
+      </c>
+      <c r="G52" t="str">
+        <v>0.00000312</v>
+      </c>
+      <c r="H52" t="str">
+        <v>BTC</v>
+      </c>
+      <c r="I52">
+        <v>53.8554910045944</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2017/12/31 09:24:00</v>
+      </c>
+      <c r="B53" t="str">
+        <v>POEBTC</v>
+      </c>
+      <c r="C53" t="str">
+        <v>BUY</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.00000779</v>
+      </c>
+      <c r="E53" t="str">
+        <v>402</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.00313158</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.402</v>
+      </c>
+      <c r="H53" t="str">
+        <v>POE</v>
+      </c>
+      <c r="I53">
+        <v>-54.8445789751464</v>
       </c>
     </row>
   </sheetData>
